--- a/tables/table7.xlsx
+++ b/tables/table7.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="22680" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +182,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,744 +490,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="98">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2169</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1159</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>354</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>73</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.86</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.46</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2398</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>260</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>397</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>35</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.858</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.094</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H4" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1771</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>403</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>312</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>117</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.85</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.201</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H5" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="28">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3917</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>127</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>707</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.847</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.028</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2598</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>102</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>505</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>35</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.837</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.035</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2040</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1048</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>484</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>410</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.808</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.446</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H8" s="1">
         <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>714</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>299</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>177</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>199</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.801</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.403</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="F9" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H9" s="1">
         <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>768</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>541</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>194</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>120</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.798</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.576</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="F10" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H10" s="1">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" ht="28">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2386</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>473</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>607</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>147</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.797</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.166</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H11" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="28">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3072</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>125</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>846</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>18</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.784</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.032</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="F12" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="28">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2836</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>159</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>785</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>132</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.783</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.057</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="F13" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H13" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1721</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>886</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>483</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>218</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.781</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.414</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="F14" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H14" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="28">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1993</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>256</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>579</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>94</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.775</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G15" s="1">
         <v>0.106</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1552</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>618</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>511</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>203</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.752</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>0.315</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1795</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>325</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>611</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>225</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.746</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.164</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H17" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" ht="28">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2504</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1206</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>885</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>201</v>
       </c>
-      <c r="F18" s="2">
-        <v>0.739</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.361</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F18" s="1">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H18" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="28">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>695</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>361</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>275</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>195</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.717</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.424</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F19" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H19" s="1">
         <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1844</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>629</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>743</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>369</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.713</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.282</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H20" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2714</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>222</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1138</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>163</v>
       </c>
-      <c r="F21" s="2">
-        <v>0.705</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.072</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H21" s="1">
         <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>821</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>276</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>355</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>138</v>
       </c>
-      <c r="F22" s="2">
-        <v>0.698</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.262</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="F22" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H22" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="28">
+      <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1910</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>491</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>879</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>235</v>
       </c>
-      <c r="F23" s="2">
-        <v>0.685</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.195</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="F23" s="1">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H23" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2745</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>290</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1315</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>164</v>
       </c>
-      <c r="F24" s="2">
-        <v>0.676</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.082</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="F24" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H24" s="1">
         <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>758</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>329</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>376</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>240</v>
       </c>
-      <c r="F25" s="2">
-        <v>0.668</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.359</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="F25" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H25" s="1">
         <v>1036</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>973</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>357</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>583</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>222</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.625</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>0.27</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>1918</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" ht="28">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>847</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>210</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>551</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>215</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.606</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.215</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" ht="42">
+      <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1688</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>272</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1497</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>275</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.53</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>0.121</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>292</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>242</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>590</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>366</v>
       </c>
-      <c r="F29" s="2">
-        <v>0.331</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G29" s="1">
         <v>0.498</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>1597</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>